--- a/models/training_plots.xlsx
+++ b/models/training_plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\energy\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D832F-837A-4A45-BE62-80C84C0C48E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF2251-F5CF-479E-8150-EF2F86A62062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4815" windowWidth="38940" windowHeight="13185" xr2:uid="{61FDCE22-91B0-4DAC-B0B0-EE639B59B81C}"/>
+    <workbookView xWindow="0" yWindow="4815" windowWidth="29100" windowHeight="13185" xr2:uid="{61FDCE22-91B0-4DAC-B0B0-EE639B59B81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,2055 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Forcast</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> Model Training</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_GHI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>61.201805110000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.607875819999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.13350105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.437580109999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.984458920000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.630933760000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.76981735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.091310499999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.594446179999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.183479309999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.87111282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.546291350000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.292795179999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.066385270000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.883495329999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.639598849999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.45201874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.328870770000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.14290428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.997873309999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_GHI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>59.675144199999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.561206820000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.413980479999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.083189010000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.339996339999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.785253520000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.55661392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.481998440000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.706411360000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.39036179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.772392270000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.610137940000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.176727289999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.27366829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.025348659999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.539979930000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.518295290000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.819602969999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.80606461</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.13135338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.39651602506637501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38378700613975503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36798527836799599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32869315147399902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28865176439285201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26442450284957802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24868880212306901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.237357482314109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22916707396507199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22226198017597101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21710097789764399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21277438104152599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20759700238704601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20418110489845201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20086766779422699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19841672480106301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19525097310542999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.192488357424736</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19041763246059401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.188595131039619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.40143999457359297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37978604435920699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36910265684127802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30656373500823902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28260412812232899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28970164060592601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27124980092048601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26063320040702798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26242253184318498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.254574865102767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25115260481834401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.262182146310806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24413277208805001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.238275721669197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.225223839282989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.225336134433746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2286958694458</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.232227712869644</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.238891512155532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23578473925590501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.1811463832855198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0741510391235298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2859361171722401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96368283033370905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80859804153442305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72447687387466397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66079235076904297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61520463228225697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.584259033203125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55506676435470503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53569787740707397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51846551895141602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50604206323623602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49461385607719399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48486492037773099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46828147768974299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46014043688774098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45474398136138899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44916930794715798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.438308715820312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.8151841163635201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3390085697174001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52935922145843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2640618085861199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.982890844345092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14810013771057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72693449258804299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93065077066421498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76890438795089699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75883638858795099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65683567523956299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.09248530864715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91350996494293202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56444418430328303</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60265970230102495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57299935817718495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59164851903915405</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65902227163314797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59784609079360895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61268794536590498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0B7A-4174-8551-0E38B401F14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2035223328"/>
+        <c:axId val="2035225408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2035223328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035225408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2035225408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Mean Absolute Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035223328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40543181853363958"/>
+          <c:y val="0.18641271237599541"/>
+          <c:w val="0.5429408701401095"/>
+          <c:h val="0.16721156330224654"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCAB7D4-3BA8-4D24-94B9-5327ECCB7794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BC9C66-E4EA-430B-8099-AFC0DE2EF0FF}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,5 +2953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>